--- a/src/test/resources/xls/price.xlsx
+++ b/src/test/resources/xls/price.xlsx
@@ -1260,7 +1260,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="5">
-        <v>20000</v>
+        <v>29000</v>
       </c>
       <c r="D3" s="5">
         <v>70000</v>
@@ -1275,10 +1275,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="5">
-        <v>80000</v>
+        <v>79000</v>
       </c>
       <c r="D4" s="5">
-        <v>100000</v>
+        <v>101000</v>
       </c>
       <c r="E4" s="3"/>
     </row>

--- a/src/test/resources/xls/price.xlsx
+++ b/src/test/resources/xls/price.xlsx
@@ -1260,10 +1260,10 @@
         <v>6</v>
       </c>
       <c r="C3" s="5">
-        <v>29000</v>
+        <v>19000</v>
       </c>
       <c r="D3" s="5">
-        <v>70000</v>
+        <v>32000</v>
       </c>
       <c r="E3" s="3"/>
     </row>
@@ -1275,10 +1275,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="5">
-        <v>79000</v>
+        <v>55000</v>
       </c>
       <c r="D4" s="5">
-        <v>101000</v>
+        <v>72000</v>
       </c>
       <c r="E4" s="3"/>
     </row>

--- a/src/test/resources/xls/price.xlsx
+++ b/src/test/resources/xls/price.xlsx
@@ -1260,10 +1260,10 @@
         <v>6</v>
       </c>
       <c r="C3" s="5">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="D3" s="5">
-        <v>70000</v>
+        <v>32000</v>
       </c>
       <c r="E3" s="3"/>
     </row>
@@ -1275,10 +1275,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="5">
-        <v>80000</v>
+        <v>55000</v>
       </c>
       <c r="D4" s="5">
-        <v>100000</v>
+        <v>72000</v>
       </c>
       <c r="E4" s="3"/>
     </row>
